--- a/Client/public/OAC/OAC.xlsx
+++ b/Client/public/OAC/OAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cami\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C70A39-FD08-4176-A6D0-C089068262AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF38F03-18A1-4CA8-9400-D2B9484AEC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="144">
   <si>
     <t>O.A.C.  ORDEN DE ATENCION AL CLIENTE</t>
   </si>
@@ -119,12 +117,6 @@
     <t>CALIBRE FUSIBLE/SECC.CONDUCT</t>
   </si>
   <si>
-    <t>ABRIO</t>
-  </si>
-  <si>
-    <t>CERRO</t>
-  </si>
-  <si>
     <t>DESCRIPCION DE LA FALLA</t>
   </si>
   <si>
@@ -462,9 +454,6 @@
   </si>
   <si>
     <t>ATENDIO EN TERRENO OPERARIO:</t>
-  </si>
-  <si>
-    <t>………………………………………………………………………….      FIRMA OPERARIO</t>
   </si>
   <si>
     <t>HORARIO DE INICIO:</t>
@@ -486,7 +475,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,8 +649,9 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF242424"/>
-      <name val="Aptos Narrow"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2130,9 +2120,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2168,9 +2155,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="75" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2198,719 +2182,739 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" indent="3"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" indent="3"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="103" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="13" fillId="5" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="5" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="88" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="86" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3243,16 +3247,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="10" max="10" width="15.85546875" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
     <col min="12" max="12" width="19.85546875" customWidth="1"/>
@@ -3262,25 +3266,25 @@
     <col min="16" max="16" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" ht="15.75" thickBot="1"/>
-    <row r="2" spans="3:16" ht="15.75" thickBot="1">
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
-    </row>
-    <row r="3" spans="3:16" ht="15" customHeight="1">
-      <c r="C3" s="48"/>
+    <row r="1" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
+    </row>
+    <row r="3" spans="3:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="47"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -3288,33 +3292,33 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="108" t="s">
+      <c r="K3" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-    </row>
-    <row r="4" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C4" s="48"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="132"/>
+    </row>
+    <row r="4" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="47"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="33"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="113"/>
-    </row>
-    <row r="5" spans="3:16" ht="15.75" customHeight="1">
-      <c r="C5" s="48"/>
+      <c r="K4" s="133"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="135"/>
+    </row>
+    <row r="5" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="47"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3322,35 +3326,35 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="116"/>
-    </row>
-    <row r="6" spans="3:16" ht="36.75" customHeight="1">
-      <c r="C6" s="48"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="138"/>
+    </row>
+    <row r="6" spans="3:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="47"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="250"/>
-      <c r="I6" s="250"/>
+      <c r="H6" s="289"/>
+      <c r="I6" s="289"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="128" t="s">
+      <c r="K6" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="130"/>
-    </row>
-    <row r="7" spans="3:16">
-      <c r="C7" s="48"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="150"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="151"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="47"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3361,12 +3365,12 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="118"/>
-    </row>
-    <row r="8" spans="3:16">
-      <c r="C8" s="49"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="139"/>
+      <c r="P7" s="140"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="48"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -3377,12 +3381,12 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="118"/>
-    </row>
-    <row r="9" spans="3:16">
-      <c r="C9" s="48"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="140"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="47"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -3393,45 +3397,45 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="74"/>
-    </row>
-    <row r="10" spans="3:16" ht="19.5" customHeight="1">
-      <c r="C10" s="50" t="s">
+      <c r="N9" s="69"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="71"/>
+    </row>
+    <row r="10" spans="3:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="49" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="251"/>
+      <c r="E10" s="286"/>
+      <c r="F10" s="286"/>
+      <c r="G10" s="286"/>
+      <c r="H10" s="286"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="126" t="s">
+      <c r="L10" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="127"/>
-      <c r="N10" s="67" t="s">
+      <c r="M10" s="148"/>
+      <c r="N10" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="68" t="s">
+      <c r="O10" s="292" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="69" t="s">
+      <c r="P10" s="66" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="3:16" ht="18.75">
-      <c r="C11" s="50" t="s">
+    <row r="11" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="49" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="251"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="251"/>
+      <c r="E11" s="286"/>
+      <c r="F11" s="286"/>
+      <c r="G11" s="286"/>
+      <c r="H11" s="286"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3440,18 +3444,18 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="251"/>
-      <c r="P11" s="253"/>
-    </row>
-    <row r="12" spans="3:16" ht="18.75">
-      <c r="C12" s="50" t="s">
+      <c r="O11" s="286"/>
+      <c r="P11" s="287"/>
+    </row>
+    <row r="12" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="49" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="251"/>
+      <c r="E12" s="286"/>
+      <c r="F12" s="286"/>
+      <c r="G12" s="286"/>
+      <c r="H12" s="286"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3460,18 +3464,18 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="251"/>
-      <c r="P12" s="253"/>
-    </row>
-    <row r="13" spans="3:16" ht="18.75">
-      <c r="C13" s="50" t="s">
+      <c r="O12" s="286"/>
+      <c r="P12" s="287"/>
+    </row>
+    <row r="13" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
+      <c r="E13" s="286"/>
+      <c r="F13" s="286"/>
+      <c r="G13" s="286"/>
+      <c r="H13" s="286"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -3480,18 +3484,18 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="251"/>
-      <c r="P13" s="253"/>
-    </row>
-    <row r="14" spans="3:16" ht="18.75">
-      <c r="C14" s="50" t="s">
+      <c r="O13" s="286"/>
+      <c r="P13" s="287"/>
+    </row>
+    <row r="14" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="49" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252"/>
-      <c r="G14" s="252"/>
-      <c r="H14" s="252"/>
+      <c r="E14" s="285"/>
+      <c r="F14" s="285"/>
+      <c r="G14" s="285"/>
+      <c r="H14" s="285"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -3500,11 +3504,11 @@
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="252"/>
-      <c r="P14" s="254"/>
-    </row>
-    <row r="15" spans="3:16" ht="18.75">
-      <c r="C15" s="49"/>
+      <c r="O14" s="285"/>
+      <c r="P14" s="288"/>
+    </row>
+    <row r="15" spans="3:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="48"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -3517,1001 +3521,989 @@
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="3:16" ht="24" thickBot="1">
-      <c r="C16" s="225" t="s">
+      <c r="P15" s="50"/>
+    </row>
+    <row r="16" spans="3:16" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="256" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="226"/>
-      <c r="E16" s="226"/>
-      <c r="F16" s="226"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="226"/>
-      <c r="I16" s="226"/>
-      <c r="J16" s="226"/>
-      <c r="K16" s="226"/>
-      <c r="L16" s="226"/>
-      <c r="M16" s="226"/>
-      <c r="N16" s="226"/>
-      <c r="O16" s="226"/>
-      <c r="P16" s="227"/>
-    </row>
-    <row r="17" spans="3:16" ht="21.75" customHeight="1" thickBot="1">
-      <c r="C17" s="245" t="s">
+      <c r="D16" s="257"/>
+      <c r="E16" s="257"/>
+      <c r="F16" s="257"/>
+      <c r="G16" s="257"/>
+      <c r="H16" s="257"/>
+      <c r="I16" s="257"/>
+      <c r="J16" s="257"/>
+      <c r="K16" s="257"/>
+      <c r="L16" s="257"/>
+      <c r="M16" s="257"/>
+      <c r="N16" s="257"/>
+      <c r="O16" s="257"/>
+      <c r="P16" s="258"/>
+    </row>
+    <row r="17" spans="3:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="247" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="233"/>
-      <c r="E17" s="231" t="s">
+      <c r="D17" s="248"/>
+      <c r="E17" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="232"/>
-      <c r="G17" s="233"/>
-      <c r="H17" s="231" t="s">
+      <c r="F17" s="266"/>
+      <c r="G17" s="248"/>
+      <c r="H17" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="232"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="237" t="s">
+      <c r="I17" s="266"/>
+      <c r="J17" s="248"/>
+      <c r="K17" s="269" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="238"/>
-      <c r="M17" s="239" t="s">
+      <c r="L17" s="270"/>
+      <c r="M17" s="271" t="s">
         <v>21</v>
       </c>
-      <c r="N17" s="240"/>
-      <c r="O17" s="248" t="s">
+      <c r="N17" s="272"/>
+      <c r="O17" s="252" t="s">
         <v>22</v>
       </c>
-      <c r="P17" s="223" t="s">
+      <c r="P17" s="254" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="3:16" ht="23.25" customHeight="1" thickBot="1">
-      <c r="C18" s="246"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="235"/>
-      <c r="G18" s="236"/>
-      <c r="H18" s="234"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="236"/>
+    <row r="18" spans="3:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="249"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="268"/>
+      <c r="G18" s="250"/>
+      <c r="H18" s="267"/>
+      <c r="I18" s="268"/>
+      <c r="J18" s="250"/>
       <c r="K18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="241"/>
-      <c r="N18" s="242"/>
-      <c r="O18" s="249"/>
-      <c r="P18" s="224"/>
-    </row>
-    <row r="19" spans="3:16" ht="27.95" customHeight="1">
-      <c r="C19" s="52" t="s">
+      <c r="M18" s="273"/>
+      <c r="N18" s="274"/>
+      <c r="O18" s="253"/>
+      <c r="P18" s="255"/>
+    </row>
+    <row r="19" spans="3:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="277"/>
+      <c r="F19" s="277"/>
+      <c r="G19" s="277"/>
+      <c r="H19" s="277"/>
+      <c r="I19" s="277"/>
+      <c r="J19" s="277"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="275"/>
+      <c r="N19" s="275"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="73"/>
+    </row>
+    <row r="20" spans="3:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="263"/>
+      <c r="G20" s="263"/>
+      <c r="H20" s="263"/>
+      <c r="I20" s="263"/>
+      <c r="J20" s="263"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="276"/>
+      <c r="N20" s="276"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="77"/>
+    </row>
+    <row r="21" spans="3:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="278"/>
+      <c r="F21" s="278"/>
+      <c r="G21" s="278"/>
+      <c r="H21" s="278"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="278"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="251"/>
+      <c r="N21" s="251"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="76"/>
+    </row>
+    <row r="22" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="259" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D22" s="260"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
+      <c r="H22" s="260"/>
+      <c r="I22" s="260"/>
+      <c r="J22" s="260"/>
+      <c r="K22" s="260"/>
+      <c r="L22" s="260"/>
+      <c r="M22" s="260"/>
+      <c r="N22" s="260"/>
+      <c r="O22" s="260"/>
+      <c r="P22" s="261"/>
+    </row>
+    <row r="23" spans="3:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="262"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="263"/>
+      <c r="F23" s="263"/>
+      <c r="G23" s="263"/>
+      <c r="H23" s="263"/>
+      <c r="I23" s="263"/>
+      <c r="J23" s="263"/>
+      <c r="K23" s="263"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="263"/>
+      <c r="N23" s="263"/>
+      <c r="O23" s="263"/>
+      <c r="P23" s="264"/>
+    </row>
+    <row r="24" spans="3:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="262"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="263"/>
+      <c r="F24" s="263"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="263"/>
+      <c r="I24" s="263"/>
+      <c r="J24" s="263"/>
+      <c r="K24" s="263"/>
+      <c r="L24" s="263"/>
+      <c r="M24" s="263"/>
+      <c r="N24" s="263"/>
+      <c r="O24" s="263"/>
+      <c r="P24" s="264"/>
+    </row>
+    <row r="25" spans="3:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="279" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="258"/>
-      <c r="F19" s="258"/>
-      <c r="G19" s="258"/>
-      <c r="H19" s="258"/>
-      <c r="I19" s="258"/>
-      <c r="J19" s="258"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="243"/>
-      <c r="N19" s="243"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="76"/>
-    </row>
-    <row r="20" spans="3:16" ht="27.95" customHeight="1">
-      <c r="C20" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="259"/>
-      <c r="F20" s="259"/>
-      <c r="G20" s="259"/>
-      <c r="H20" s="259"/>
-      <c r="I20" s="259"/>
-      <c r="J20" s="259"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="244"/>
-      <c r="N20" s="244"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="80"/>
-    </row>
-    <row r="21" spans="3:16" ht="27.95" customHeight="1">
-      <c r="C21" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
-      <c r="H21" s="260"/>
-      <c r="I21" s="260"/>
-      <c r="J21" s="260"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="247"/>
-      <c r="N21" s="247"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="79"/>
-    </row>
-    <row r="22" spans="3:16" ht="24" customHeight="1">
-      <c r="C22" s="228" t="s">
+      <c r="D25" s="280"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280"/>
+      <c r="H25" s="280"/>
+      <c r="I25" s="280"/>
+      <c r="J25" s="280"/>
+      <c r="K25" s="280"/>
+      <c r="L25" s="280"/>
+      <c r="M25" s="280"/>
+      <c r="N25" s="280"/>
+      <c r="O25" s="280"/>
+      <c r="P25" s="281"/>
+    </row>
+    <row r="26" spans="3:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="262"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="263"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="263"/>
+      <c r="I26" s="263"/>
+      <c r="J26" s="263"/>
+      <c r="K26" s="263"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="263"/>
+      <c r="N26" s="263"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="264"/>
+    </row>
+    <row r="27" spans="3:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="262"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="263"/>
+      <c r="F27" s="263"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="263"/>
+      <c r="I27" s="263"/>
+      <c r="J27" s="263"/>
+      <c r="K27" s="263"/>
+      <c r="L27" s="263"/>
+      <c r="M27" s="263"/>
+      <c r="N27" s="263"/>
+      <c r="O27" s="263"/>
+      <c r="P27" s="264"/>
+    </row>
+    <row r="28" spans="3:16" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="279" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="229"/>
-      <c r="E22" s="229"/>
-      <c r="F22" s="229"/>
-      <c r="G22" s="229"/>
-      <c r="H22" s="229"/>
-      <c r="I22" s="229"/>
-      <c r="J22" s="229"/>
-      <c r="K22" s="229"/>
-      <c r="L22" s="229"/>
-      <c r="M22" s="229"/>
-      <c r="N22" s="229"/>
-      <c r="O22" s="229"/>
-      <c r="P22" s="230"/>
-    </row>
-    <row r="23" spans="3:16" ht="27.95" customHeight="1">
-      <c r="C23" s="261"/>
-      <c r="D23" s="259"/>
-      <c r="E23" s="259"/>
-      <c r="F23" s="259"/>
-      <c r="G23" s="259"/>
-      <c r="H23" s="259"/>
-      <c r="I23" s="259"/>
-      <c r="J23" s="259"/>
-      <c r="K23" s="259"/>
-      <c r="L23" s="259"/>
-      <c r="M23" s="259"/>
-      <c r="N23" s="259"/>
-      <c r="O23" s="259"/>
-      <c r="P23" s="262"/>
-    </row>
-    <row r="24" spans="3:16" ht="27.95" customHeight="1">
-      <c r="C24" s="261"/>
-      <c r="D24" s="259"/>
-      <c r="E24" s="259"/>
-      <c r="F24" s="259"/>
-      <c r="G24" s="259"/>
-      <c r="H24" s="259"/>
-      <c r="I24" s="259"/>
-      <c r="J24" s="259"/>
-      <c r="K24" s="259"/>
-      <c r="L24" s="259"/>
-      <c r="M24" s="259"/>
-      <c r="N24" s="259"/>
-      <c r="O24" s="259"/>
-      <c r="P24" s="262"/>
-    </row>
-    <row r="25" spans="3:16" ht="24" customHeight="1">
-      <c r="C25" s="218" t="s">
+      <c r="D28" s="290"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="290"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="290"/>
+      <c r="K28" s="290"/>
+      <c r="L28" s="290"/>
+      <c r="M28" s="280" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="219"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="219"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="219"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="219"/>
-      <c r="M25" s="219"/>
-      <c r="N25" s="219"/>
-      <c r="O25" s="219"/>
-      <c r="P25" s="220"/>
-    </row>
-    <row r="26" spans="3:16" ht="27.95" customHeight="1">
-      <c r="C26" s="261"/>
-      <c r="D26" s="259"/>
-      <c r="E26" s="259"/>
-      <c r="F26" s="259"/>
-      <c r="G26" s="259"/>
-      <c r="H26" s="259"/>
-      <c r="I26" s="259"/>
-      <c r="J26" s="259"/>
-      <c r="K26" s="259"/>
-      <c r="L26" s="259"/>
-      <c r="M26" s="259"/>
-      <c r="N26" s="259"/>
-      <c r="O26" s="259"/>
-      <c r="P26" s="262"/>
-    </row>
-    <row r="27" spans="3:16" ht="27.95" customHeight="1">
-      <c r="C27" s="261"/>
-      <c r="D27" s="259"/>
-      <c r="E27" s="259"/>
-      <c r="F27" s="259"/>
-      <c r="G27" s="259"/>
-      <c r="H27" s="259"/>
-      <c r="I27" s="259"/>
-      <c r="J27" s="259"/>
-      <c r="K27" s="259"/>
-      <c r="L27" s="259"/>
-      <c r="M27" s="259"/>
-      <c r="N27" s="259"/>
-      <c r="O27" s="259"/>
-      <c r="P27" s="262"/>
-    </row>
-    <row r="28" spans="3:16" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="C28" s="218" t="s">
+      <c r="N28" s="290"/>
+      <c r="O28" s="290"/>
+      <c r="P28" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="221"/>
-      <c r="E28" s="221"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="221"/>
-      <c r="H28" s="221"/>
-      <c r="I28" s="221"/>
-      <c r="J28" s="221"/>
-      <c r="K28" s="221"/>
-      <c r="L28" s="221"/>
-      <c r="M28" s="219" t="s">
+    </row>
+    <row r="29" spans="3:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="262"/>
+      <c r="D29" s="263"/>
+      <c r="E29" s="263"/>
+      <c r="F29" s="263"/>
+      <c r="G29" s="263"/>
+      <c r="H29" s="263"/>
+      <c r="I29" s="263"/>
+      <c r="J29" s="263"/>
+      <c r="K29" s="263"/>
+      <c r="L29" s="263"/>
+      <c r="M29" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="N28" s="221"/>
-      <c r="O28" s="221"/>
-      <c r="P28" s="71" t="s">
+      <c r="N29" s="291"/>
+      <c r="O29" s="291"/>
+      <c r="P29" s="78"/>
+    </row>
+    <row r="30" spans="3:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="262"/>
+      <c r="D30" s="263"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="263"/>
+      <c r="I30" s="263"/>
+      <c r="J30" s="263"/>
+      <c r="K30" s="263"/>
+      <c r="L30" s="263"/>
+      <c r="M30" s="291" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" ht="27.95" customHeight="1">
-      <c r="C29" s="261"/>
-      <c r="D29" s="259"/>
-      <c r="E29" s="259"/>
-      <c r="F29" s="259"/>
-      <c r="G29" s="259"/>
-      <c r="H29" s="259"/>
-      <c r="I29" s="259"/>
-      <c r="J29" s="259"/>
-      <c r="K29" s="259"/>
-      <c r="L29" s="259"/>
-      <c r="M29" s="222" t="s">
+      <c r="N30" s="291"/>
+      <c r="O30" s="291"/>
+      <c r="P30" s="78"/>
+    </row>
+    <row r="31" spans="3:16" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="279" t="s">
         <v>33</v>
       </c>
-      <c r="N29" s="222"/>
-      <c r="O29" s="222"/>
-      <c r="P29" s="81"/>
-    </row>
-    <row r="30" spans="3:16" ht="27.95" customHeight="1">
-      <c r="C30" s="261"/>
-      <c r="D30" s="259"/>
-      <c r="E30" s="259"/>
-      <c r="F30" s="259"/>
-      <c r="G30" s="259"/>
-      <c r="H30" s="259"/>
-      <c r="I30" s="259"/>
-      <c r="J30" s="259"/>
-      <c r="K30" s="259"/>
-      <c r="L30" s="259"/>
-      <c r="M30" s="222" t="s">
+      <c r="D31" s="280"/>
+      <c r="E31" s="280"/>
+      <c r="F31" s="280"/>
+      <c r="G31" s="280"/>
+      <c r="H31" s="280"/>
+      <c r="I31" s="280"/>
+      <c r="J31" s="280"/>
+      <c r="K31" s="280"/>
+      <c r="L31" s="280"/>
+      <c r="M31" s="280"/>
+      <c r="N31" s="280"/>
+      <c r="O31" s="280"/>
+      <c r="P31" s="281"/>
+    </row>
+    <row r="32" spans="3:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="171"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="172"/>
+      <c r="L32" s="172"/>
+      <c r="M32" s="172"/>
+      <c r="N32" s="172"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="173"/>
+    </row>
+    <row r="33" spans="2:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="171"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="172"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="172"/>
+      <c r="O33" s="172"/>
+      <c r="P33" s="173"/>
+    </row>
+    <row r="34" spans="2:16" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="N30" s="222"/>
-      <c r="O30" s="222"/>
-      <c r="P30" s="81"/>
-    </row>
-    <row r="31" spans="3:16" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="C31" s="218" t="s">
+      <c r="D34" s="164"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="219"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="219"/>
-      <c r="G31" s="219"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="219"/>
-      <c r="L31" s="219"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="219"/>
-      <c r="O31" s="219"/>
-      <c r="P31" s="220"/>
-    </row>
-    <row r="32" spans="3:16" ht="27.95" customHeight="1">
-      <c r="C32" s="263"/>
-      <c r="D32" s="264"/>
-      <c r="E32" s="264"/>
-      <c r="F32" s="264"/>
-      <c r="G32" s="264"/>
-      <c r="H32" s="264"/>
-      <c r="I32" s="264"/>
-      <c r="J32" s="264"/>
-      <c r="K32" s="264"/>
-      <c r="L32" s="264"/>
-      <c r="M32" s="264"/>
-      <c r="N32" s="264"/>
-      <c r="O32" s="264"/>
-      <c r="P32" s="265"/>
-    </row>
-    <row r="33" spans="2:16" ht="27.95" customHeight="1">
-      <c r="C33" s="263"/>
-      <c r="D33" s="264"/>
-      <c r="E33" s="264"/>
-      <c r="F33" s="264"/>
-      <c r="G33" s="264"/>
-      <c r="H33" s="264"/>
-      <c r="I33" s="264"/>
-      <c r="J33" s="264"/>
-      <c r="K33" s="264"/>
-      <c r="L33" s="264"/>
-      <c r="M33" s="264"/>
-      <c r="N33" s="264"/>
-      <c r="O33" s="264"/>
-      <c r="P33" s="265"/>
-    </row>
-    <row r="34" spans="2:16" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="C34" s="209" t="s">
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="165"/>
+      <c r="J34" s="163" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="143"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="142" t="s">
+      <c r="K34" s="164"/>
+      <c r="L34" s="164"/>
+      <c r="M34" s="225"/>
+      <c r="N34" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="142" t="s">
+      <c r="O34" s="155"/>
+      <c r="P34" s="156"/>
+    </row>
+    <row r="35" spans="2:16" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C35" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="216"/>
-      <c r="N34" s="133" t="s">
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="134"/>
-      <c r="P34" s="135"/>
-    </row>
-    <row r="35" spans="2:16" s="20" customFormat="1" ht="18.75">
-      <c r="C35" s="210" t="s">
+      <c r="G35" s="224"/>
+      <c r="H35" s="223" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="211"/>
-      <c r="E35" s="211"/>
-      <c r="F35" s="214" t="s">
+      <c r="I35" s="224"/>
+      <c r="J35" s="223" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="224"/>
+      <c r="L35" s="223" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="226"/>
+      <c r="N35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="215"/>
-      <c r="H35" s="214" t="s">
+      <c r="O35" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="215"/>
-      <c r="J35" s="214" t="s">
+      <c r="P35" s="51"/>
+    </row>
+    <row r="36" spans="2:16" s="20" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="169"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M36" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" s="52"/>
+    </row>
+    <row r="37" spans="2:16" s="20" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="37"/>
+      <c r="C37" s="160" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="81"/>
+      <c r="N37" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P37" s="52"/>
+    </row>
+    <row r="38" spans="2:16" s="20" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="161"/>
+      <c r="D38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="74"/>
+      <c r="H38" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="M38" s="83"/>
+      <c r="N38" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="52"/>
+    </row>
+    <row r="39" spans="2:16" s="20" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C39" s="162"/>
+      <c r="D39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="M39" s="85"/>
+      <c r="N39" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P39" s="52"/>
+    </row>
+    <row r="40" spans="2:16" s="20" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C40" s="152" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="M40" s="81"/>
+      <c r="N40" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="O40" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" s="53"/>
+    </row>
+    <row r="41" spans="2:16" s="20" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C41" s="153"/>
+      <c r="D41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" s="86"/>
+      <c r="N41" s="157" t="s">
+        <v>63</v>
+      </c>
+      <c r="O41" s="158"/>
+      <c r="P41" s="159"/>
+    </row>
+    <row r="42" spans="2:16" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C42" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="M42" s="89"/>
+      <c r="N42" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O42" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P42" s="55"/>
+    </row>
+    <row r="43" spans="2:16" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C43" s="107" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="M43" s="81"/>
+      <c r="N43" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="O43" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="P43" s="53"/>
+    </row>
+    <row r="44" spans="2:16" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C44" s="145"/>
+      <c r="D44" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="M44" s="90"/>
+      <c r="N44" s="157" t="s">
+        <v>69</v>
+      </c>
+      <c r="O44" s="158"/>
+      <c r="P44" s="159"/>
+    </row>
+    <row r="45" spans="2:16" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C45" s="145"/>
+      <c r="D45" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="16"/>
+      <c r="F45" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="74"/>
+      <c r="H45" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="M45" s="74"/>
+      <c r="N45" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="215"/>
-      <c r="L35" s="214" t="s">
+      <c r="O45" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M35" s="217"/>
-      <c r="N35" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="P35" s="53"/>
-    </row>
-    <row r="36" spans="2:16" s="20" customFormat="1" ht="19.5" thickBot="1">
-      <c r="C36" s="212"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J36" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K36" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="L36" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="M36" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="N36" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P36" s="54"/>
-    </row>
-    <row r="37" spans="2:16" s="20" customFormat="1" ht="21.75" thickBot="1">
-      <c r="B37" s="38"/>
-      <c r="C37" s="139" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="P45" s="55"/>
+    </row>
+    <row r="46" spans="2:16" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C46" s="145"/>
+      <c r="D46" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="74"/>
+      <c r="H46" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="M46" s="74"/>
+      <c r="N46" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" s="52"/>
+    </row>
+    <row r="47" spans="2:16" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C47" s="145"/>
+      <c r="D47" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47" s="74"/>
+      <c r="L47" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="M47" s="74"/>
+      <c r="N47" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="M37" s="84"/>
-      <c r="N37" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" s="54"/>
-    </row>
-    <row r="38" spans="2:16" s="20" customFormat="1" ht="21.75" thickBot="1">
-      <c r="C38" s="140"/>
-      <c r="D38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="M38" s="86"/>
-      <c r="N38" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="O38" s="8" t="s">
+      <c r="O47" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P47" s="52"/>
+    </row>
+    <row r="48" spans="2:16" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C48" s="145"/>
+      <c r="D48" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="16"/>
+      <c r="F48" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" s="91"/>
+      <c r="J48" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="K48" s="83"/>
+      <c r="L48" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="M48" s="93"/>
+      <c r="N48" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="P38" s="54"/>
-    </row>
-    <row r="39" spans="2:16" s="20" customFormat="1" ht="21.75" thickBot="1">
-      <c r="C39" s="141"/>
-      <c r="D39" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="M39" s="88"/>
-      <c r="N39" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="P39" s="54"/>
-    </row>
-    <row r="40" spans="2:16" s="20" customFormat="1" ht="21.75" thickBot="1">
-      <c r="C40" s="131" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="M40" s="84"/>
-      <c r="N40" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O40" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="P40" s="55"/>
-    </row>
-    <row r="41" spans="2:16" s="20" customFormat="1" ht="21.75" thickBot="1">
-      <c r="C41" s="132"/>
-      <c r="D41" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="M41" s="89"/>
-      <c r="N41" s="136" t="s">
-        <v>65</v>
-      </c>
-      <c r="O41" s="137"/>
-      <c r="P41" s="138"/>
-    </row>
-    <row r="42" spans="2:16" s="20" customFormat="1" ht="21">
-      <c r="C42" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="M42" s="92"/>
-      <c r="N42" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="O42" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="P42" s="57"/>
-    </row>
-    <row r="43" spans="2:16" s="20" customFormat="1" ht="21">
-      <c r="C43" s="123" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="M43" s="84"/>
-      <c r="N43" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="O43" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="P43" s="55"/>
-    </row>
-    <row r="44" spans="2:16" s="20" customFormat="1" ht="21">
-      <c r="C44" s="124"/>
-      <c r="D44" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="M44" s="93"/>
-      <c r="N44" s="136" t="s">
-        <v>71</v>
-      </c>
-      <c r="O44" s="137"/>
-      <c r="P44" s="138"/>
-    </row>
-    <row r="45" spans="2:16" s="20" customFormat="1" ht="21">
-      <c r="C45" s="124"/>
-      <c r="D45" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E45" s="16"/>
-      <c r="F45" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="M45" s="77"/>
-      <c r="N45" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="O45" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="P45" s="57"/>
-    </row>
-    <row r="46" spans="2:16" s="20" customFormat="1" ht="21">
-      <c r="C46" s="124"/>
-      <c r="D46" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="M46" s="77"/>
-      <c r="N46" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="O46" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="P46" s="54"/>
-    </row>
-    <row r="47" spans="2:16" s="20" customFormat="1" ht="21">
-      <c r="C47" s="124"/>
-      <c r="D47" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="K47" s="77"/>
-      <c r="L47" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="M47" s="77"/>
-      <c r="N47" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="O47" s="8" t="s">
+      <c r="O48" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P47" s="54"/>
-    </row>
-    <row r="48" spans="2:16" s="20" customFormat="1" ht="21">
-      <c r="C48" s="124"/>
-      <c r="D48" s="15" t="s">
+      <c r="P48" s="52"/>
+    </row>
+    <row r="49" spans="3:16" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="C49" s="146"/>
+      <c r="D49" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="I48" s="94"/>
-      <c r="J48" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="K48" s="86"/>
-      <c r="L48" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="M48" s="96"/>
-      <c r="N48" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="O48" s="8" t="s">
+      <c r="E49" s="35"/>
+      <c r="F49" s="94" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="91"/>
+      <c r="H49" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="I49" s="95"/>
+      <c r="J49" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="K49" s="96"/>
+      <c r="L49" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="M49" s="98"/>
+      <c r="N49" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="P48" s="54"/>
-    </row>
-    <row r="49" spans="3:16" s="20" customFormat="1" ht="21">
-      <c r="C49" s="125"/>
-      <c r="D49" s="35" t="s">
+      <c r="O49" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="97" t="s">
-        <v>51</v>
-      </c>
-      <c r="G49" s="94"/>
-      <c r="H49" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="98"/>
-      <c r="J49" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="K49" s="99"/>
-      <c r="L49" s="100" t="s">
-        <v>51</v>
-      </c>
-      <c r="M49" s="101"/>
-      <c r="N49" s="23" t="s">
+      <c r="P49" s="52"/>
+    </row>
+    <row r="50" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="O49" s="8" t="s">
+      <c r="D50" s="100"/>
+      <c r="E50" s="28" t="s">
         <v>81</v>
-      </c>
-      <c r="P49" s="54"/>
-    </row>
-    <row r="50" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1">
-      <c r="C50" s="119" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="29" t="s">
-        <v>83</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="29" t="s">
-        <v>84</v>
+      <c r="I50" s="100"/>
+      <c r="J50" s="28" t="s">
+        <v>82</v>
       </c>
       <c r="K50" s="19"/>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
-      <c r="O50" s="103"/>
-      <c r="P50" s="57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1">
-      <c r="C51" s="120"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="30" t="s">
-        <v>86</v>
+      <c r="O50" s="100"/>
+      <c r="P50" s="55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="142"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="29" t="s">
+        <v>84</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="102"/>
-      <c r="J51" s="30" t="s">
-        <v>87</v>
+      <c r="I51" s="99"/>
+      <c r="J51" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="K51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="8"/>
-      <c r="O51" s="102"/>
-      <c r="P51" s="54" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1">
-      <c r="C52" s="120"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="30" t="s">
-        <v>89</v>
+      <c r="O51" s="99"/>
+      <c r="P51" s="52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="142"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="30" t="s">
-        <v>90</v>
+      <c r="I52" s="99"/>
+      <c r="J52" s="29" t="s">
+        <v>88</v>
       </c>
       <c r="K52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="8"/>
-      <c r="O52" s="104"/>
-      <c r="P52" s="54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1">
-      <c r="C53" s="120"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="30" t="s">
-        <v>92</v>
+      <c r="O52" s="101"/>
+      <c r="P52" s="52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="142"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="29" t="s">
+        <v>90</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="102"/>
-      <c r="J53" s="30" t="s">
-        <v>93</v>
+      <c r="I53" s="99"/>
+      <c r="J53" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="K53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
-      <c r="O53" s="104"/>
-      <c r="P53" s="54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1">
-      <c r="C54" s="120"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="30" t="s">
-        <v>95</v>
+      <c r="O53" s="101"/>
+      <c r="P53" s="52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="142"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="29" t="s">
+        <v>93</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="30" t="s">
-        <v>96</v>
+      <c r="I54" s="99"/>
+      <c r="J54" s="29" t="s">
+        <v>94</v>
       </c>
       <c r="K54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
-      <c r="O54" s="104"/>
-      <c r="P54" s="54" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1">
-      <c r="C55" s="121"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="30" t="s">
-        <v>98</v>
+      <c r="O54" s="101"/>
+      <c r="P54" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="143"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="29" t="s">
+        <v>96</v>
       </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="30" t="s">
-        <v>99</v>
+      <c r="I55" s="99"/>
+      <c r="J55" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="K55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
-      <c r="O55" s="104"/>
-      <c r="P55" s="58" t="s">
+      <c r="O55" s="101"/>
+      <c r="P55" s="56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C56" s="144"/>
+      <c r="D56" s="40"/>
+      <c r="F56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="57"/>
+    </row>
+    <row r="57" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="56" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1">
-      <c r="C56" s="122"/>
-      <c r="D56" s="41"/>
-      <c r="F56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="42"/>
-      <c r="L56" s="42"/>
-      <c r="N56" s="42"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="59"/>
-    </row>
-    <row r="57" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1">
-      <c r="C57" s="123" t="s">
+      <c r="G57" s="100"/>
+      <c r="H57" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="8" t="s">
+      <c r="I57" s="100"/>
+      <c r="J57" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G57" s="103"/>
-      <c r="H57" s="8" t="s">
+      <c r="K57" s="100"/>
+      <c r="L57" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I57" s="103"/>
-      <c r="J57" s="8" t="s">
+      <c r="M57" s="100"/>
+      <c r="N57" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="K57" s="103"/>
-      <c r="L57" s="8" t="s">
+      <c r="O57" s="100"/>
+      <c r="P57" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="M57" s="103"/>
-      <c r="N57" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="O57" s="103"/>
-      <c r="P57" s="54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" s="20" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C58" s="124"/>
+    </row>
+    <row r="58" spans="3:16" s="20" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="145"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -4524,38 +4516,38 @@
       <c r="M58" s="8"/>
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="54"/>
-    </row>
-    <row r="59" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1">
-      <c r="C59" s="124"/>
+      <c r="P58" s="52"/>
+    </row>
+    <row r="59" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="145"/>
       <c r="D59" s="8"/>
-      <c r="E59" s="103"/>
+      <c r="E59" s="100"/>
       <c r="F59" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" s="100"/>
+      <c r="H59" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" s="100"/>
+      <c r="J59" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G59" s="103"/>
-      <c r="H59" s="8" t="s">
+      <c r="K59" s="100"/>
+      <c r="L59" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I59" s="103"/>
-      <c r="J59" s="8" t="s">
+      <c r="M59" s="100"/>
+      <c r="N59" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="K59" s="103"/>
-      <c r="L59" s="8" t="s">
+      <c r="O59" s="100"/>
+      <c r="P59" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="M59" s="103"/>
-      <c r="N59" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="O59" s="103"/>
-      <c r="P59" s="54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" s="20" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="C60" s="124"/>
+    </row>
+    <row r="60" spans="3:16" s="20" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="145"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
@@ -4568,349 +4560,357 @@
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
-      <c r="P60" s="54"/>
-    </row>
-    <row r="61" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1">
-      <c r="C61" s="125"/>
+      <c r="P60" s="52"/>
+    </row>
+    <row r="61" spans="3:16" s="20" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="146"/>
       <c r="D61" s="26"/>
-      <c r="E61" s="103"/>
+      <c r="E61" s="100"/>
       <c r="F61" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G61" s="100"/>
+      <c r="H61" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="I61" s="100"/>
+      <c r="J61" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="G61" s="103"/>
-      <c r="H61" s="26" t="s">
+      <c r="K61" s="100"/>
+      <c r="L61" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="I61" s="103"/>
-      <c r="J61" s="26" t="s">
+      <c r="M61" s="100"/>
+      <c r="N61" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="K61" s="103"/>
-      <c r="L61" s="26" t="s">
+      <c r="O61" s="100"/>
+      <c r="P61" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="M61" s="103"/>
-      <c r="N61" s="26" t="s">
+    </row>
+    <row r="62" spans="3:16" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="O61" s="103"/>
-      <c r="P61" s="55" t="s">
+      <c r="D62" s="238"/>
+      <c r="E62" s="239"/>
+      <c r="F62" s="240"/>
+      <c r="G62" s="244"/>
+      <c r="H62" s="245"/>
+      <c r="I62" s="246"/>
+      <c r="J62" s="244"/>
+      <c r="K62" s="245"/>
+      <c r="L62" s="246"/>
+      <c r="M62" s="174"/>
+      <c r="N62" s="174"/>
+      <c r="O62" s="284"/>
+      <c r="P62" s="176"/>
+    </row>
+    <row r="63" spans="3:16" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C63" s="228"/>
+      <c r="D63" s="241"/>
+      <c r="E63" s="242"/>
+      <c r="F63" s="243"/>
+      <c r="G63" s="206"/>
+      <c r="H63" s="207"/>
+      <c r="I63" s="208"/>
+      <c r="J63" s="206"/>
+      <c r="K63" s="207"/>
+      <c r="L63" s="208"/>
+      <c r="M63" s="175"/>
+      <c r="N63" s="175"/>
+      <c r="O63" s="283"/>
+      <c r="P63" s="177"/>
+    </row>
+    <row r="64" spans="3:16" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C64" s="229"/>
+      <c r="D64" s="232" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" s="6" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C62" s="201" t="s">
+      <c r="E64" s="233"/>
+      <c r="F64" s="234"/>
+      <c r="G64" s="235" t="s">
         <v>120</v>
       </c>
-      <c r="D62" s="266"/>
-      <c r="E62" s="267"/>
-      <c r="F62" s="268"/>
-      <c r="G62" s="269"/>
-      <c r="H62" s="270"/>
-      <c r="I62" s="271"/>
-      <c r="J62" s="269"/>
-      <c r="K62" s="270"/>
-      <c r="L62" s="271"/>
-      <c r="M62" s="272"/>
-      <c r="N62" s="272"/>
-      <c r="O62" s="257"/>
-      <c r="P62" s="273"/>
-    </row>
-    <row r="63" spans="3:16" s="6" customFormat="1" ht="15.75">
-      <c r="C63" s="202"/>
-      <c r="D63" s="274"/>
-      <c r="E63" s="275"/>
-      <c r="F63" s="276"/>
-      <c r="G63" s="277"/>
-      <c r="H63" s="278"/>
-      <c r="I63" s="279"/>
-      <c r="J63" s="277"/>
-      <c r="K63" s="278"/>
-      <c r="L63" s="279"/>
-      <c r="M63" s="280"/>
-      <c r="N63" s="280"/>
-      <c r="O63" s="256"/>
-      <c r="P63" s="281"/>
-    </row>
-    <row r="64" spans="3:16" s="6" customFormat="1" ht="18.75">
-      <c r="C64" s="203"/>
-      <c r="D64" s="206" t="s">
+      <c r="H64" s="236"/>
+      <c r="I64" s="237"/>
+      <c r="J64" s="235" t="s">
         <v>121</v>
       </c>
-      <c r="E64" s="207"/>
-      <c r="F64" s="208"/>
-      <c r="G64" s="198" t="s">
+      <c r="K64" s="236"/>
+      <c r="L64" s="237"/>
+      <c r="M64" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="H64" s="199"/>
-      <c r="I64" s="200"/>
-      <c r="J64" s="198" t="s">
+      <c r="N64" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="K64" s="199"/>
-      <c r="L64" s="200"/>
-      <c r="M64" s="31" t="s">
+      <c r="O64" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="N64" s="31" t="s">
+      <c r="P64" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="O64" s="31" t="s">
+    </row>
+    <row r="65" spans="3:16" s="6" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="P64" s="60" t="s">
+      <c r="D65" s="197"/>
+      <c r="E65" s="198"/>
+      <c r="F65" s="199"/>
+      <c r="G65" s="203"/>
+      <c r="H65" s="204"/>
+      <c r="I65" s="205"/>
+      <c r="J65" s="203"/>
+      <c r="K65" s="204"/>
+      <c r="L65" s="205"/>
+      <c r="M65" s="209"/>
+      <c r="N65" s="209"/>
+      <c r="O65" s="282"/>
+      <c r="P65" s="178"/>
+    </row>
+    <row r="66" spans="3:16" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C66" s="230"/>
+      <c r="D66" s="200"/>
+      <c r="E66" s="201"/>
+      <c r="F66" s="202"/>
+      <c r="G66" s="206"/>
+      <c r="H66" s="207"/>
+      <c r="I66" s="208"/>
+      <c r="J66" s="206"/>
+      <c r="K66" s="207"/>
+      <c r="L66" s="208"/>
+      <c r="M66" s="175"/>
+      <c r="N66" s="175"/>
+      <c r="O66" s="283"/>
+      <c r="P66" s="177"/>
+    </row>
+    <row r="67" spans="3:16" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C67" s="231"/>
+      <c r="D67" s="179" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" s="180"/>
+      <c r="F67" s="181"/>
+      <c r="G67" s="179" t="s">
+        <v>120</v>
+      </c>
+      <c r="H67" s="180"/>
+      <c r="I67" s="181"/>
+      <c r="J67" s="179" t="s">
+        <v>121</v>
+      </c>
+      <c r="K67" s="180"/>
+      <c r="L67" s="181"/>
+      <c r="M67" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="N67" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="O67" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="P67" s="58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="3:16" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C68" s="182" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65" spans="3:16" s="6" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C65" s="131" t="s">
+      <c r="D68" s="185"/>
+      <c r="E68" s="186"/>
+      <c r="F68" s="186"/>
+      <c r="G68" s="187"/>
+      <c r="H68" s="185"/>
+      <c r="I68" s="186"/>
+      <c r="J68" s="186"/>
+      <c r="K68" s="194"/>
+      <c r="L68" s="210"/>
+      <c r="M68" s="211"/>
+      <c r="N68" s="212"/>
+      <c r="O68" s="219"/>
+      <c r="P68" s="221"/>
+    </row>
+    <row r="69" spans="3:16" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C69" s="183"/>
+      <c r="D69" s="188"/>
+      <c r="E69" s="189"/>
+      <c r="F69" s="189"/>
+      <c r="G69" s="190"/>
+      <c r="H69" s="188"/>
+      <c r="I69" s="189"/>
+      <c r="J69" s="189"/>
+      <c r="K69" s="195"/>
+      <c r="L69" s="213"/>
+      <c r="M69" s="214"/>
+      <c r="N69" s="215"/>
+      <c r="O69" s="220"/>
+      <c r="P69" s="222"/>
+    </row>
+    <row r="70" spans="3:16" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C70" s="183"/>
+      <c r="D70" s="188"/>
+      <c r="E70" s="189"/>
+      <c r="F70" s="189"/>
+      <c r="G70" s="190"/>
+      <c r="H70" s="188"/>
+      <c r="I70" s="189"/>
+      <c r="J70" s="189"/>
+      <c r="K70" s="195"/>
+      <c r="L70" s="213"/>
+      <c r="M70" s="214"/>
+      <c r="N70" s="215"/>
+      <c r="O70" s="220"/>
+      <c r="P70" s="222"/>
+    </row>
+    <row r="71" spans="3:16" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C71" s="183"/>
+      <c r="D71" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="D65" s="282"/>
-      <c r="E65" s="283"/>
-      <c r="F65" s="284"/>
-      <c r="G65" s="285"/>
-      <c r="H65" s="286"/>
-      <c r="I65" s="287"/>
-      <c r="J65" s="285"/>
-      <c r="K65" s="286"/>
-      <c r="L65" s="287"/>
-      <c r="M65" s="288"/>
-      <c r="N65" s="288"/>
-      <c r="O65" s="255"/>
-      <c r="P65" s="289"/>
-    </row>
-    <row r="66" spans="3:16" s="6" customFormat="1" ht="15.75">
-      <c r="C66" s="204"/>
-      <c r="D66" s="290"/>
-      <c r="E66" s="291"/>
-      <c r="F66" s="292"/>
-      <c r="G66" s="277"/>
-      <c r="H66" s="278"/>
-      <c r="I66" s="279"/>
-      <c r="J66" s="277"/>
-      <c r="K66" s="278"/>
-      <c r="L66" s="279"/>
-      <c r="M66" s="280"/>
-      <c r="N66" s="280"/>
-      <c r="O66" s="256"/>
-      <c r="P66" s="281"/>
-    </row>
-    <row r="67" spans="3:16" s="6" customFormat="1" ht="18.75">
-      <c r="C67" s="205"/>
-      <c r="D67" s="171" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="172"/>
-      <c r="F67" s="173"/>
-      <c r="G67" s="171" t="s">
-        <v>122</v>
-      </c>
-      <c r="H67" s="172"/>
-      <c r="I67" s="173"/>
-      <c r="J67" s="171" t="s">
-        <v>123</v>
-      </c>
-      <c r="K67" s="172"/>
-      <c r="L67" s="173"/>
-      <c r="M67" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="N67" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="O67" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="P67" s="60" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="3:16" s="6" customFormat="1" ht="15.75">
-      <c r="C68" s="174" t="s">
+      <c r="E71" s="192"/>
+      <c r="F71" s="192"/>
+      <c r="G71" s="193"/>
+      <c r="H71" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="177"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="178"/>
-      <c r="G68" s="179"/>
-      <c r="H68" s="177"/>
-      <c r="I68" s="178"/>
-      <c r="J68" s="178"/>
-      <c r="K68" s="186"/>
-      <c r="L68" s="189"/>
-      <c r="M68" s="190"/>
-      <c r="N68" s="191"/>
-      <c r="O68" s="145"/>
-      <c r="P68" s="147"/>
-    </row>
-    <row r="69" spans="3:16" s="6" customFormat="1" ht="15.75">
-      <c r="C69" s="175"/>
-      <c r="D69" s="180"/>
-      <c r="E69" s="181"/>
-      <c r="F69" s="181"/>
-      <c r="G69" s="182"/>
-      <c r="H69" s="180"/>
-      <c r="I69" s="181"/>
-      <c r="J69" s="181"/>
-      <c r="K69" s="187"/>
-      <c r="L69" s="192"/>
-      <c r="M69" s="193"/>
-      <c r="N69" s="194"/>
-      <c r="O69" s="146"/>
-      <c r="P69" s="148"/>
-    </row>
-    <row r="70" spans="3:16" s="6" customFormat="1" ht="15.75">
-      <c r="C70" s="175"/>
-      <c r="D70" s="180"/>
-      <c r="E70" s="181"/>
-      <c r="F70" s="181"/>
-      <c r="G70" s="182"/>
-      <c r="H70" s="180"/>
-      <c r="I70" s="181"/>
-      <c r="J70" s="181"/>
-      <c r="K70" s="187"/>
-      <c r="L70" s="192"/>
-      <c r="M70" s="193"/>
-      <c r="N70" s="194"/>
-      <c r="O70" s="146"/>
-      <c r="P70" s="148"/>
-    </row>
-    <row r="71" spans="3:16" s="6" customFormat="1" ht="15.75">
-      <c r="C71" s="175"/>
-      <c r="D71" s="183" t="s">
+      <c r="I71" s="192"/>
+      <c r="J71" s="192"/>
+      <c r="K71" s="196"/>
+      <c r="L71" s="216" t="s">
         <v>130</v>
       </c>
-      <c r="E71" s="184"/>
-      <c r="F71" s="184"/>
-      <c r="G71" s="185"/>
-      <c r="H71" s="183" t="s">
+      <c r="M71" s="217"/>
+      <c r="N71" s="218"/>
+      <c r="O71" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="I71" s="184"/>
-      <c r="J71" s="184"/>
-      <c r="K71" s="188"/>
-      <c r="L71" s="195" t="s">
+      <c r="P71" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="M71" s="196"/>
-      <c r="N71" s="197"/>
-      <c r="O71" s="17" t="s">
+    </row>
+    <row r="72" spans="3:16" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="C72" s="184"/>
+      <c r="D72" s="102"/>
+      <c r="E72" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="P71" s="61" t="s">
+      <c r="F72" s="111"/>
+      <c r="G72" s="102"/>
+      <c r="H72" s="60" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="72" spans="3:16" s="6" customFormat="1" ht="21">
-      <c r="C72" s="176"/>
-      <c r="D72" s="105"/>
-      <c r="E72" s="151" t="s">
+      <c r="I72" s="60"/>
+      <c r="J72" s="102"/>
+      <c r="K72" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="F72" s="152"/>
-      <c r="G72" s="105"/>
-      <c r="H72" s="62" t="s">
+      <c r="L72" s="61"/>
+      <c r="M72" s="102"/>
+      <c r="N72" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="I72" s="62"/>
-      <c r="J72" s="105"/>
-      <c r="K72" s="63" t="s">
+      <c r="O72" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="L72" s="63"/>
-      <c r="M72" s="105"/>
-      <c r="N72" s="63" t="s">
+      <c r="P72" s="62"/>
+    </row>
+    <row r="73" spans="3:16" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="O72" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="P72" s="64"/>
-    </row>
-    <row r="73" spans="3:16" s="20" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C73" s="123" t="s">
-        <v>140</v>
-      </c>
-      <c r="D73" s="153" t="s">
-        <v>141</v>
-      </c>
-      <c r="E73" s="154"/>
-      <c r="F73" s="154"/>
-      <c r="G73" s="154"/>
-      <c r="H73" s="154"/>
+      <c r="D73" s="112"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="113"/>
+      <c r="G73" s="113"/>
+      <c r="H73" s="113"/>
       <c r="I73" s="18"/>
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
       <c r="L73" s="27"/>
-      <c r="M73" s="159" t="s">
-        <v>142</v>
-      </c>
-      <c r="N73" s="160"/>
-      <c r="O73" s="165"/>
-      <c r="P73" s="169"/>
-    </row>
-    <row r="74" spans="3:16" s="20" customFormat="1" ht="18.75">
-      <c r="C74" s="149"/>
-      <c r="D74" s="155"/>
-      <c r="E74" s="156"/>
-      <c r="F74" s="156"/>
-      <c r="G74" s="156"/>
-      <c r="H74" s="156"/>
-      <c r="I74" s="106"/>
+      <c r="M73" s="118" t="s">
+        <v>139</v>
+      </c>
+      <c r="N73" s="119"/>
+      <c r="O73" s="124"/>
+      <c r="P73" s="128"/>
+    </row>
+    <row r="74" spans="3:16" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C74" s="108"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="115"/>
+      <c r="G74" s="115"/>
+      <c r="H74" s="115"/>
+      <c r="I74" s="103"/>
       <c r="J74" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K74" s="8"/>
       <c r="L74" s="24"/>
-      <c r="M74" s="161"/>
-      <c r="N74" s="162"/>
-      <c r="O74" s="166"/>
-      <c r="P74" s="170"/>
-    </row>
-    <row r="75" spans="3:16" s="20" customFormat="1" ht="18.75" customHeight="1">
-      <c r="C75" s="149"/>
-      <c r="D75" s="155"/>
-      <c r="E75" s="156"/>
-      <c r="F75" s="156"/>
-      <c r="G75" s="156"/>
-      <c r="H75" s="156"/>
-      <c r="I75" s="107"/>
+      <c r="M74" s="120"/>
+      <c r="N74" s="121"/>
+      <c r="O74" s="125"/>
+      <c r="P74" s="129"/>
+    </row>
+    <row r="75" spans="3:16" s="20" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="108"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="115"/>
+      <c r="G75" s="115"/>
+      <c r="H75" s="115"/>
+      <c r="I75" s="104"/>
       <c r="J75" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K75" s="8"/>
       <c r="L75" s="24"/>
-      <c r="M75" s="159" t="s">
-        <v>145</v>
-      </c>
-      <c r="N75" s="160"/>
-      <c r="O75" s="167"/>
-      <c r="P75" s="170"/>
-    </row>
-    <row r="76" spans="3:16" s="20" customFormat="1" ht="18.75">
-      <c r="C76" s="150"/>
-      <c r="D76" s="157"/>
-      <c r="E76" s="158"/>
-      <c r="F76" s="158"/>
-      <c r="G76" s="158"/>
-      <c r="H76" s="158"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="66"/>
-      <c r="M76" s="163"/>
-      <c r="N76" s="164"/>
-      <c r="O76" s="168"/>
-      <c r="P76" s="70" t="s">
-        <v>146</v>
+      <c r="M75" s="118" t="s">
+        <v>142</v>
+      </c>
+      <c r="N75" s="119"/>
+      <c r="O75" s="126"/>
+      <c r="P75" s="129"/>
+    </row>
+    <row r="76" spans="3:16" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C76" s="109"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="117"/>
+      <c r="H76" s="117"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="122"/>
+      <c r="N76" s="123"/>
+      <c r="O76" s="127"/>
+      <c r="P76" s="67" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="x4pyrg7+NCRFAfr3MlCvyRkKx4KCWfBOZEz1JVMPVJ+MLHfZZsIHjTycGCNIpCyKex1QO0amOqnKmfEmKDBv8g==" saltValue="pbWIw7L473KCQJ+4ZbvALg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZvaOZE6sO8kUz1qYT4OjQ6/csdj5m9k2rZDneJD7pHKar8vHHfsAr/9zR/ChjY8kHOt23vsXnlaPYIeePcjaBg==" saltValue="rohdwgEFSn6iq/oaO9h9VA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="H6 N9:P9 O11:P14 E10:H14 C19:P21 C23:P24 C26:P27 C29:L30 P29:P30 C32:P33 F37:M49 D50:D55 I50:I55 O50:O55 E57 E59 E61 G61 G59 G57 I57 I59 I61 K57 K59 K61 M61 M59 M57 O57" name="Rango1"/>
+  </protectedRanges>
   <mergeCells count="101">
-    <mergeCell ref="O65:O66"/>
-    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="C27:P27"/>
+    <mergeCell ref="C31:P31"/>
+    <mergeCell ref="C32:P32"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="M30:O30"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O12:P12"/>
@@ -4921,8 +4921,6 @@
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="E13:H13"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
     <mergeCell ref="C17:D18"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="O17:O18"/>
@@ -4942,17 +4940,9 @@
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="C27:P27"/>
-    <mergeCell ref="C31:P31"/>
-    <mergeCell ref="C32:P32"/>
     <mergeCell ref="C25:P25"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="C29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="C30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="J34:M34"/>
     <mergeCell ref="J35:K35"/>
@@ -4966,6 +4956,7 @@
     <mergeCell ref="J62:L63"/>
     <mergeCell ref="J64:L64"/>
     <mergeCell ref="M62:M63"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="N62:N63"/>
     <mergeCell ref="P62:P63"/>
     <mergeCell ref="P65:P66"/>
@@ -4986,6 +4977,8 @@
     <mergeCell ref="L71:N71"/>
     <mergeCell ref="O68:O70"/>
     <mergeCell ref="P68:P70"/>
+    <mergeCell ref="O65:O66"/>
+    <mergeCell ref="O62:O63"/>
     <mergeCell ref="C73:C76"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="D73:H76"/>
